--- a/doc/Prix_Composants.xlsx
+++ b/doc/Prix_Composants.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">Composant </t>
   </si>
@@ -78,14 +78,25 @@
   </si>
   <si>
     <t>U262-161N-4BVC11 (USB-C)</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -171,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -186,6 +197,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -468,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C18"/>
+  <dimension ref="B1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,6 +632,15 @@
         <v>0.39</v>
       </c>
     </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="4">
+        <f>SUM(C3:C18)</f>
+        <v>49.749999999999993</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/doc/Prix_Composants.xlsx
+++ b/doc/Prix_Composants.xlsx
@@ -87,7 +87,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +99,13 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -182,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -200,6 +207,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -482,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C19"/>
+  <dimension ref="B1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,8 +505,8 @@
     <col min="3" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,7 +514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
@@ -512,7 +522,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
@@ -520,7 +530,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
@@ -528,7 +538,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
@@ -536,7 +546,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
@@ -544,7 +554,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
@@ -552,7 +562,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
@@ -560,7 +570,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -568,7 +578,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
@@ -576,7 +586,7 @@
         <v>4.34</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
@@ -584,7 +594,7 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
@@ -592,7 +602,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
@@ -600,7 +610,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>14</v>
       </c>
@@ -608,13 +618,16 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="4">
         <v>4.0199999999999996</v>
       </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
